--- a/biology/Botanique/Line_of_Fire_(film,_2017)/Line_of_Fire_(film,_2017).xlsx
+++ b/biology/Botanique/Line_of_Fire_(film,_2017)/Line_of_Fire_(film,_2017).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Line of Fire ou Seuls les braves au Québec (Only the Brave) est un film américain réalisé par Joseph Kosinski et sorti en 2017. Il s'inspire de l'incendie de Yarnell Hill survenu en 2013 à Yarnell dans l'Arizona[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Line of Fire ou Seuls les braves au Québec (Only the Brave) est un film américain réalisé par Joseph Kosinski et sorti en 2017. Il s'inspire de l'incendie de Yarnell Hill survenu en 2013 à Yarnell dans l'Arizona,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2013, Eric Marsh, surintendant d'une équipe d'incendie et de sauvetage à Prescott, en Arizona, reçoit un appel pour un incendie de forêt. Son équipe est traitée comme des pompiers municipaux et sa prédiction sera que le feu s'infiltrera dans un quartier voisin, ce qui est ignoré par une équipe de choc de Californie. Le feu s'éteint, mais le quartier est anéanti. Eric parle au chef des pompiers Duane Steinbrink de son désir que son équipe devienne des vedettes certifiées. Duane prévient qu'aucune autre équipe municipale dans le pays n'a ce genre de statut, et ils devront s'engager à une saison de travail plus longue que les activités normales. Cela concerne la femme d'Eric, Amanda, qui en veut à la façon dont l'engagement de temps empêche déjà Eric de vouloir fonder une famille.
 Pendant ce temps, un paria de vingt et un ans nommé Brendan McDonough a été aux prises avec la toxicomanie et est au chômage. Son ex-petite amie Natalie est enceinte, mais elle estime qu'il est trop irresponsable pour être avec elle. Brendan est arrêté pour avoir tenté de voler une chaîne stéréo dans une voiture et sa mère l'expulse de sa maison. Quand sa fille est née, il veut la défendre, alors il s'entretient avec Eric, qui l'engage malgré les réserves de certains membres de l'équipage.
@@ -548,7 +562,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Only the Brave
 Titre français : Line of Fire
@@ -569,7 +585,7 @@
 Genre : drame biographique
 Format : couleur - 2.35:1
 Durée : 133 minutes
-Budget : 38 000 000 $[3]
+Budget : 38 000 000 $
 Date de sortie :
 États-Unis : 8 octobre 2017 (avant-première à Los Angeles)
 États-Unis : 20 octobre 2017 (sortie nationale)
@@ -601,7 +617,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Josh Brolin (VF : Philippe Vincent ; VQ : Gilbert Lachance) : Eric « Supe » Marsh, le superviseur
 Miles Teller (VF : Gauthier Battoue ; VQ : Alexandre Fortin) : Brendan « Donut » McDonough
@@ -634,7 +652,7 @@
 Barbie Robertson : Marsena Thurston
 Jade Kammerman : Stephanie Turbyfill
 Donna Potter : Teresa Duncan « Tera »
- Source et légende : version québécoise (VQ) sur Doublage.qc.ca[4]</t>
+ Source et légende : version québécoise (VQ) sur Doublage.qc.ca</t>
         </is>
       </c>
     </row>
@@ -664,11 +682,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Attribution des rôles
-Le 1er mars 2016, Josh Brolin et Miles Teller rejoignent la distribution du film. Jeff Bridges et Taylor Kitsch décrochent ensuite à leur tour un rôle. Jeff Bridges et Josh Brolin avaient déjà travaillé ensemble pour le western True Grit (2010).
-Tournage
-Le tournage a débuté le 13 juin 2016 au Nouveau-Mexique. Il a lieu notamment à Santa Fe et à Los Alamos[5].
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er mars 2016, Josh Brolin et Miles Teller rejoignent la distribution du film. Jeff Bridges et Taylor Kitsch décrochent ensuite à leur tour un rôle. Jeff Bridges et Josh Brolin avaient déjà travaillé ensemble pour le western True Grit (2010).
 </t>
         </is>
       </c>
@@ -694,15 +714,92 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a débuté le 13 juin 2016 au Nouveau-Mexique. Il a lieu notamment à Santa Fe et à Los Alamos.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Line_of_Fire_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Line_of_Fire_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Critique
-Le film reçoit des critiques globalement positives. Sur l'agrégateur américain Rotten Tomatoes, il récolte 87% d'opinions favorables pour 164 critiques et une note moyenne de 7,1⁄10. Le consensus suivant résume les critiques compilées par le site : « Le casting de vétérans et son histoire inspirée de fait réel émouvant s'ajoutent à un drame sans fioritures qui est tout aussi puissant que les héros de la vie réelle qu'il honore[6] ». Sur Metacritic, il obtient une note moyenne de 72⁄100 pour 35 critiques[7].
-Box-office
-Le film est un échec au box-office avec seulement 26 millions de dollars récoltés dans le monde, pour un budget de 38 millions[3]. Il n'est pas sorti dans les salles françaises[8]. Il récolte par ailleurs 8,5 millions de dollars supplémentaires via les ventes de DVD et Blu-ray aux États-Unis[9].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques globalement positives. Sur l'agrégateur américain Rotten Tomatoes, il récolte 87% d'opinions favorables pour 164 critiques et une note moyenne de 7,1⁄10. Le consensus suivant résume les critiques compilées par le site : « Le casting de vétérans et son histoire inspirée de fait réel émouvant s'ajoutent à un drame sans fioritures qui est tout aussi puissant que les héros de la vie réelle qu'il honore ». Sur Metacritic, il obtient une note moyenne de 72⁄100 pour 35 critiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Line_of_Fire_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Line_of_Fire_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est un échec au box-office avec seulement 26 millions de dollars récoltés dans le monde, pour un budget de 38 millions. Il n'est pas sorti dans les salles françaises. Il récolte par ailleurs 8,5 millions de dollars supplémentaires via les ventes de DVD et Blu-ray aux États-Unis.
 </t>
         </is>
       </c>
